--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1409.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1409.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.781265675654853</v>
+        <v>1.195112705230713</v>
       </c>
       <c r="B1">
-        <v>2.384088799689255</v>
+        <v>1.673968195915222</v>
       </c>
       <c r="C1">
-        <v>2.575600907532781</v>
+        <v>6.764725208282471</v>
       </c>
       <c r="D1">
-        <v>3.04955875309133</v>
+        <v>2.254708290100098</v>
       </c>
       <c r="E1">
-        <v>1.863626621628526</v>
+        <v>1.186519503593445</v>
       </c>
     </row>
   </sheetData>
